--- a/export/SM5B_3_BOM.xlsx
+++ b/export/SM5B_3_BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
   <si>
     <t>Item #</t>
   </si>
@@ -99,9 +99,6 @@
     <t>foot</t>
   </si>
   <si>
-    <t>2.0</t>
-  </si>
-  <si>
     <t>Stainless Steel</t>
   </si>
   <si>
@@ -147,7 +144,7 @@
     <t>C241-BL210</t>
   </si>
   <si>
-    <t>2.1</t>
+    <t>2.1.1</t>
   </si>
 </sst>
 </file>
@@ -531,7 +528,7 @@
   <dimension ref="C1:AH140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G6" sqref="G6:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,7 +595,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>12</v>
@@ -636,16 +633,16 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J6" s="3">
         <v>144.47999999999999</v>
@@ -698,16 +695,16 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7" s="3">
         <v>234</v>
@@ -727,7 +724,7 @@
         <v>23</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>18</v>
@@ -760,16 +757,16 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J8" s="3">
         <v>344.85</v>
@@ -789,7 +786,7 @@
         <v>23</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>18</v>
@@ -822,16 +819,16 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9" s="11">
         <v>344.85</v>
@@ -851,7 +848,7 @@
         <v>23</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>18</v>
@@ -884,16 +881,16 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J10" s="3">
         <v>387.01</v>
@@ -913,7 +910,7 @@
         <v>23</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>18</v>
@@ -946,16 +943,16 @@
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J11" s="3">
         <v>217.24</v>
@@ -978,7 +975,7 @@
         <v>18</v>
       </c>
       <c r="P11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
@@ -1008,16 +1005,16 @@
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J12" s="3">
         <v>230.31</v>
@@ -1037,7 +1034,7 @@
         <v>23</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>18</v>
@@ -1070,16 +1067,16 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J13" s="3">
         <v>382.76</v>
@@ -1099,7 +1096,7 @@
         <v>23</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>18</v>
@@ -1132,16 +1129,16 @@
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J14" s="3">
         <v>30</v>
@@ -1161,7 +1158,7 @@
         <v>23</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>18</v>
